--- a/biology/Botanique/Sm/Sm..xlsx
+++ b/biology/Botanique/Sm/Sm..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">James Edward Smith, né le 2 décembre 1759 à Norwich, mort le 17 mars 1828, est un botaniste britannique, connu notamment pour avoir été le fondateur et le premier président de la Linnean Society of London (1788).
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est le fils d’un riche marchand de laine. Il montre dès son jeune âge un profond intérêt pour le monde naturel. Au début des années 1780, voulant devenir médecin, il entre à l’université d'Édimbourg. Il y suit les cours de chimie de Joseph Black (1728-1799) et d’histoire naturelle de John Walker (1731-1803). Il part à Londres en 1783 pour poursuivre ses études. Il se lie d’amitié avec Sir Joseph Banks (1743-1820).
 La veuve de Carl von Linné (1707-1778), après le décès de leur fils Carl von Linné le Jeune (1741-1783), propose à Sir Joseph Banks de lui vendre la totalité de la bibliothèque (riche de trois mille ouvrages), des manuscrits et des spécimens utilisés par le savants suédois, mais Sir Banks refuse. C’est James Edward Smith qui s’en porte acquéreur pour la somme, assez faible, de mille livres. L’ensemble arrive à Londres en 1784.
